--- a/downloaded_files/MCNS202_Lecture-35631.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -39,6 +39,15 @@
     <x:t>احمد محمد عزت عطية</x:t>
   </x:si>
   <x:si>
+    <x:t>4250164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250165</x:t>
   </x:si>
   <x:si>
@@ -145,6 +154,15 @@
   </x:si>
   <x:si>
     <x:t>Abderahman Mahmoud Abdelrahman  Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله اشرف رأفت حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Ashraf Raafat Hassanein</x:t>
   </x:si>
   <x:si>
     <x:t>1240332</x:t>
@@ -422,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -843,7 +861,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45919.4327795949</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -875,7 +893,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -907,7 +925,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4322429051</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -939,7 +957,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45908.4322429051</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -971,7 +989,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1003,7 +1021,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6670037847</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1035,7 +1053,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45907.6670037847</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1067,7 +1085,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1099,7 +1117,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1131,7 +1149,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4172006134</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1163,7 +1181,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.4516988426</x:v>
+        <x:v>45908.4172006134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1195,7 +1213,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45914.4516988426</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1227,7 +1245,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.5756681713</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1259,7 +1277,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1291,7 +1309,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45908.5756681713</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1323,7 +1341,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1355,7 +1373,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,7 +1405,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,7 +1437,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1483,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1643,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1675,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1771,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1788,6 +1806,70 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Lecture-35631.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -307,6 +307,15 @@
   </x:si>
   <x:si>
     <x:t>Nour eldeen Mostafa Ahmed Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هشام طارق احمد عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
   <x:si>
     <x:t>4250202</x:t>
@@ -440,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1821,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.7435106829</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1880,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1924,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fluid Mechanics (MCNS202) Location : [20109]20109-45-الجيزة الرئيسي Time : Sunday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MCNS202_Lecture-35631.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -127,6 +127,15 @@
   </x:si>
   <x:si>
     <x:t>ٍSalma Hany Mohamed Azez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شابى اشرف محمد كامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shaby Ashraf Mohamed Kamel</x:t>
   </x:si>
   <x:si>
     <x:t>1240323</x:t>
@@ -449,7 +458,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -749,7 +758,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1190,7 +1199,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4172006134</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1222,7 +1231,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.4516988426</x:v>
+        <x:v>45908.4172006134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1254,7 +1263,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45914.4516988426</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1286,7 +1295,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1318,7 +1327,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.5756681713</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1350,7 +1359,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45908.5756681713</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1382,7 +1391,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1414,7 +1423,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1446,7 +1455,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1478,7 +1487,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1510,7 +1519,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,7 +1551,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,7 +1583,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45919.7435106829</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.7435106829</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1911,6 +1920,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Lecture-35631.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -183,6 +183,15 @@
     <x:t>Essam Mohamed Abdel Nasser</x:t>
   </x:si>
   <x:si>
+    <x:t>4250181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على عبدالرحمن محمد ابراهيم حمزه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Abdul Rahman Mohamed Ibrahim Hamza</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250182</x:t>
   </x:si>
   <x:si>
@@ -201,6 +210,15 @@
     <x:t>Omar Mustafa Ahmed Al-Sayed Ahmed Khater</x:t>
   </x:si>
   <x:si>
+    <x:t>4250163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر مصطفى حسني محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mostafa Hosni</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240180</x:t>
   </x:si>
   <x:si>
@@ -325,6 +343,24 @@
   </x:si>
   <x:si>
     <x:t>Hesham Tarek Ahmed Awad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ابراهيم سعيد عيد حسانين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ibrahem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حسن سيد احمد حسن السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hassan Sayed Ahmed Hassan El-Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>4250202</x:t>
@@ -458,7 +494,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +794,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1391,7 +1427,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45920.7894414352</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1423,7 +1459,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1455,7 +1491,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1487,7 +1523,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45920.7941861458</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1519,7 +1555,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1551,7 +1587,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1583,7 +1619,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1615,7 +1651,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1647,7 +1683,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,7 +1715,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1711,7 +1747,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1743,7 +1779,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1775,7 +1811,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,7 +1843,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1875,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,7 +1907,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45919.7435106829</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,7 +1939,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,7 +1971,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45919.7435106829</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1988,134 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45920.7897603356</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45920.7935459838</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Lecture-35631.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -352,6 +352,15 @@
   </x:si>
   <x:si>
     <x:t>Yuossef Ibrahem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد محمد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4250201</x:t>
@@ -494,7 +503,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -794,7 +803,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2035,7 +2044,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45920.7935459838</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2067,7 +2076,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45920.7935459838</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2099,7 +2108,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2116,6 +2125,38 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Lecture-35631.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -36,7 +36,10 @@
     <x:t>1220303</x:t>
   </x:si>
   <x:si>
-    <x:t>احمد محمد عزت عطية</x:t>
+    <x:t>احمد محمد عزت عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ezzat Attia</x:t>
   </x:si>
   <x:si>
     <x:t>4250164</x:t>
@@ -890,7 +893,9 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="E2" s="3">
         <x:v>45908.4193848727</x:v>
       </x:c>
@@ -915,13 +920,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
         <x:v>45919.4327795949</x:v>
@@ -947,13 +952,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
         <x:v>45917.3081947569</x:v>
@@ -979,13 +984,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
         <x:v>45917.3133189005</x:v>
@@ -1011,13 +1016,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
         <x:v>45908.4322429051</x:v>
@@ -1043,13 +1048,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
         <x:v>45907.4200832176</x:v>
@@ -1075,13 +1080,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
         <x:v>45907.6656269329</x:v>
@@ -1107,13 +1112,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
         <x:v>45907.6670037847</x:v>
@@ -1139,13 +1144,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45908.4153628819</x:v>
@@ -1171,13 +1176,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45907.665765081</x:v>
@@ -1203,13 +1208,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45908.4174532407</x:v>
@@ -1235,13 +1240,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45919.9609886227</x:v>
@@ -1267,13 +1272,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45908.4172006134</x:v>
@@ -1299,13 +1304,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45914.4516988426</x:v>
@@ -1331,13 +1336,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45907.665162963</x:v>
@@ -1363,13 +1368,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45919.4339732639</x:v>
@@ -1395,13 +1400,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45908.5756681713</x:v>
@@ -1427,13 +1432,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45920.7894414352</x:v>
@@ -1459,13 +1464,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45917.3102704514</x:v>
@@ -1491,13 +1496,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45908.4154959491</x:v>
@@ -1523,13 +1528,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45920.7941861458</x:v>
@@ -1555,13 +1560,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45908.4178317477</x:v>
@@ -1587,13 +1592,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45914.5086548611</x:v>
@@ -1619,13 +1624,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.6653482639</x:v>
@@ -1651,13 +1656,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.6652585301</x:v>
@@ -1683,13 +1688,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45917.3417125</x:v>
@@ -1715,13 +1720,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45908.4149094097</x:v>
@@ -1747,13 +1752,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45907.6977840278</x:v>
@@ -1779,13 +1784,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45908.4150593403</x:v>
@@ -1811,13 +1816,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45909.492018669</x:v>
@@ -1843,13 +1848,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45908.4147947569</x:v>
@@ -1875,13 +1880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45908.4148716782</x:v>
@@ -1907,13 +1912,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45908.4160849537</x:v>
@@ -1939,13 +1944,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45908.4421759606</x:v>
@@ -1971,13 +1976,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45919.7435106829</x:v>
@@ -2003,13 +2008,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45920.7897603356</x:v>
@@ -2035,13 +2040,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45921.9304752315</x:v>
@@ -2067,13 +2072,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45920.7935459838</x:v>
@@ -2099,13 +2104,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45917.311553206</x:v>
@@ -2131,13 +2136,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45907.6687487269</x:v>

--- a/downloaded_files/MCNS202_Lecture-35631.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>4250165</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -961,7 +970,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45925.3152131597</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -993,7 +1002,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1025,7 +1034,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4322429051</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1057,7 +1066,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45908.4322429051</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1089,7 +1098,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1121,7 +1130,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6670037847</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1153,7 +1162,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45907.6670037847</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1185,7 +1194,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1217,7 +1226,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1249,7 +1258,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1281,7 +1290,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4172006134</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1313,7 +1322,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.4516988426</x:v>
+        <x:v>45908.4172006134</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1345,7 +1354,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45914.4516988426</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1377,7 +1386,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1409,7 +1418,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.5756681713</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1441,7 +1450,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45920.7894414352</x:v>
+        <x:v>45908.5756681713</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1473,7 +1482,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45920.7894414352</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1505,7 +1514,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1537,7 +1546,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45920.7941861458</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1569,7 +1578,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45920.7941861458</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1601,7 +1610,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1633,7 +1642,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1665,7 +1674,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1697,7 +1706,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1729,7 +1738,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1761,7 +1770,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1793,7 +1802,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1921,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1953,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1985,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45919.7435106829</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2017,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45920.7897603356</x:v>
+        <x:v>45919.7435106829</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2049,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45920.7897603356</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2081,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45920.7935459838</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45920.7935459838</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2145,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2162,6 +2171,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Lecture-35631.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35631.xlsx
@@ -51,15 +51,6 @@
     <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود محمد محمد خليفة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
-  </x:si>
-  <x:si>
     <x:t>4250165</x:t>
   </x:si>
   <x:si>
@@ -69,6 +60,24 @@
     <x:t>Ahmed Hani Al-Sayed Mohamed Shaheen</x:t>
   </x:si>
   <x:si>
+    <x:t>1240026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>افنان خالد محمد احمد على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Afnan Khaled Mohamed Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250206</x:t>
   </x:si>
   <x:si>
@@ -346,15 +355,6 @@
   </x:si>
   <x:si>
     <x:t>Nour eldeen Mostafa Ahmed Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هشام طارق احمد عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
   <x:si>
     <x:t>4250199</x:t>
@@ -970,7 +970,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45925.3152131597</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1002,7 +1002,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45927.6346006597</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1034,7 +1034,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45927.6167066319</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1066,7 +1066,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4322429051</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1098,7 +1098,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45908.4322429051</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1130,7 +1130,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1162,7 +1162,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6670037847</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1194,7 +1194,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45907.6670037847</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1226,7 +1226,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1258,7 +1258,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1290,7 +1290,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1322,7 +1322,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4172006134</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1354,7 +1354,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.4516988426</x:v>
+        <x:v>45908.4172006134</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1386,7 +1386,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45914.4516988426</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1418,7 +1418,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1450,7 +1450,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.5756681713</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1482,7 +1482,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.7894414352</x:v>
+        <x:v>45908.5756681713</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1514,7 +1514,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45920.7894414352</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1546,7 +1546,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1578,7 +1578,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45920.7941861458</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1610,7 +1610,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45920.7941861458</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1642,7 +1642,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1674,7 +1674,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1706,7 +1706,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1738,7 +1738,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1770,7 +1770,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1802,7 +1802,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1834,7 +1834,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1866,7 +1866,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1898,7 +1898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1930,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1962,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1994,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2026,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45919.7435106829</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>

--- a/downloaded_files/MCNS202_Lecture-35631.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Afnan Khaled Mohamed Ahmed Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4250206</x:t>
@@ -515,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1034,7 +1025,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.6167066319</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1066,7 +1057,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45908.4322429051</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1098,7 +1089,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4322429051</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1130,7 +1121,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1162,7 +1153,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.6670037847</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1194,7 +1185,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6670037847</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1226,7 +1217,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1258,7 +1249,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1290,7 +1281,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1322,7 +1313,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45908.4172006134</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1354,7 +1345,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4172006134</x:v>
+        <x:v>45914.4516988426</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1386,7 +1377,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.4516988426</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1418,7 +1409,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1450,7 +1441,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45908.5756681713</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1482,7 +1473,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.5756681713</x:v>
+        <x:v>45920.7894414352</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1514,7 +1505,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45920.7894414352</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1546,7 +1537,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1578,7 +1569,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45920.7941861458</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1610,7 +1601,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45920.7941861458</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1642,7 +1633,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1674,7 +1665,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1706,7 +1697,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1738,7 +1729,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1770,7 +1761,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1802,7 +1793,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1834,7 +1825,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1866,7 +1857,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1898,7 +1889,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1930,7 +1921,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1962,7 +1953,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1994,7 +1985,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2026,7 +2017,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45920.7897603356</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2058,7 +2049,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45920.7897603356</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2090,7 +2081,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45920.7935459838</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2122,7 +2113,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45920.7935459838</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2154,7 +2145,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45907.6687487269</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2171,38 +2162,6 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45907.6687487269</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Lecture-35631.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>4250165</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -961,7 +970,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45928.7044315972</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -993,7 +1002,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.6346006597</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1025,7 +1034,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45927.6346006597</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1057,7 +1066,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4322429051</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1089,7 +1098,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45908.4322429051</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1121,7 +1130,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1153,7 +1162,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6670037847</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1185,7 +1194,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45907.6670037847</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1217,7 +1226,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1249,7 +1258,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1281,7 +1290,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1313,7 +1322,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4172006134</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1345,7 +1354,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.4516988426</x:v>
+        <x:v>45908.4172006134</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1377,7 +1386,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45914.4516988426</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1409,7 +1418,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1441,7 +1450,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.5756681713</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1473,7 +1482,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.7894414352</x:v>
+        <x:v>45908.5756681713</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1505,7 +1514,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45920.7894414352</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1537,7 +1546,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1569,7 +1578,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45920.7941861458</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1601,7 +1610,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45920.7941861458</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1633,7 +1642,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1665,7 +1674,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1697,7 +1706,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1729,7 +1738,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1761,7 +1770,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1793,7 +1802,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1921,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1953,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1985,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2017,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45920.7897603356</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2049,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45920.7897603356</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2081,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45920.7935459838</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45920.7935459838</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2145,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2162,6 +2171,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Lecture-35631.xlsx
+++ b/downloaded_files/MCNS202_Lecture-35631.xlsx
@@ -345,7 +345,7 @@
     <x:t>مينا ميلاد فانوس اسحق</x:t>
   </x:si>
   <x:si>
-    <x:t>Mena Melad Fanous Isaac</x:t>
+    <x:t>Mina Milad Fanous Isaac</x:t>
   </x:si>
   <x:si>
     <x:t>1240159</x:t>
